--- a/docs/000_PJ管理/要員一覧/项目成员列表.xlsx
+++ b/docs/000_PJ管理/要員一覧/项目成员列表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ITCompany\docs\000_PJ管理\要員一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kmusubi\docs\000_PJ管理\要員一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DEADAB-2160-46E5-9519-F5E11AC5F37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E61FAF-F002-42D2-A0A5-37D7C543AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>微信名</t>
     <phoneticPr fontId="1"/>
@@ -116,12 +116,16 @@
     <t>东京</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>为了信息安全，大家可以不用写真实姓名和微信ID，群昵称即可。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +159,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
@@ -207,13 +219,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +239,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -511,9 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -530,133 +541,437 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="60.6" customHeight="1">
-      <c r="B3" s="2">
-        <f>ROW()-2</f>
+    <row r="4" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B4" s="7">
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:B9" si="0">ROW()-2</f>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B33" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="2">
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2">
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="2">
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="2">
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="2">
+      <c r="C9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B21" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B22" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B23" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B25" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B27" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B28" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B31" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B32" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" ht="60.6" customHeight="1">
+      <c r="B33" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/docs/000_PJ管理/要員一覧/项目成员列表.xlsx
+++ b/docs/000_PJ管理/要員一覧/项目成员列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kmusubi\docs\000_PJ管理\要員一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E61FAF-F002-42D2-A0A5-37D7C543AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25296E-D97B-4AFC-B461-81618AD23453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
